--- a/public/report/EmployeeReport.xlsx
+++ b/public/report/EmployeeReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -47,181 +47,160 @@
     <t>pob</t>
   </si>
   <si>
-    <t>koki</t>
-  </si>
-  <si>
-    <t>ti</t>
+    <t>Atith</t>
+  </si>
+  <si>
+    <t>Pit</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>atith@gmail.com</t>
+  </si>
+  <si>
+    <t>Documentary staff</t>
+  </si>
+  <si>
+    <t>017 897 344</t>
+  </si>
+  <si>
+    <t>Tek l'lor1</t>
+  </si>
+  <si>
+    <t>2000-01-11</t>
+  </si>
+  <si>
+    <t>Krong Siem Reap</t>
+  </si>
+  <si>
+    <t>Bona</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>bona@gmail.com</t>
+  </si>
+  <si>
+    <t>Customer care staff</t>
+  </si>
+  <si>
+    <t>092 453 879</t>
+  </si>
+  <si>
+    <t>Tek l'lor2</t>
+  </si>
+  <si>
+    <t>2003-02-11</t>
+  </si>
+  <si>
+    <t>Krong Battambang</t>
+  </si>
+  <si>
+    <t>Vy</t>
+  </si>
+  <si>
+    <t>Cheat</t>
   </si>
   <si>
     <t>Female</t>
   </si>
   <si>
-    <t>ti@dmgo.com</t>
+    <t>vy@gmail.com</t>
+  </si>
+  <si>
+    <t>Customs officer</t>
+  </si>
+  <si>
+    <t>097 563 8262</t>
+  </si>
+  <si>
+    <t>Phsar Thmei</t>
+  </si>
+  <si>
+    <t>1998-06-15</t>
+  </si>
+  <si>
+    <t>Krong Kampong Chhnang</t>
+  </si>
+  <si>
+    <t>Achariya</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>achariya@gmail.com</t>
+  </si>
+  <si>
+    <t>International payment staff</t>
+  </si>
+  <si>
+    <t>087 3244 568</t>
+  </si>
+  <si>
+    <t>Teokhla</t>
+  </si>
+  <si>
+    <t>2003-04-15</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Dalin</t>
+  </si>
+  <si>
+    <t>Ourn</t>
+  </si>
+  <si>
+    <t>dalin@gmail.com</t>
+  </si>
+  <si>
+    <t>Purchasing staff</t>
+  </si>
+  <si>
+    <t>097 345 9862</t>
+  </si>
+  <si>
+    <t>2001-03-02</t>
+  </si>
+  <si>
+    <t>PreY Veng</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Pheap</t>
+  </si>
+  <si>
+    <t>moana@gmail.com</t>
+  </si>
+  <si>
+    <t>Port staff</t>
+  </si>
+  <si>
+    <t>010 348 946</t>
+  </si>
+  <si>
+    <t>2001-12-29</t>
+  </si>
+  <si>
+    <t>Krong Preah Sihanouk</t>
+  </si>
+  <si>
+    <t>Vanny</t>
+  </si>
+  <si>
+    <t>Vet</t>
+  </si>
+  <si>
+    <t>vanny@gmail.com</t>
   </si>
   <si>
     <t>Field staff</t>
-  </si>
-  <si>
-    <t>012 454 565</t>
-  </si>
-  <si>
-    <t>Tek l'or3</t>
-  </si>
-  <si>
-    <t>2006-03-07</t>
-  </si>
-  <si>
-    <t>Prey Veng</t>
-  </si>
-  <si>
-    <t>Atith</t>
-  </si>
-  <si>
-    <t>Pit</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>atith@gmail.com</t>
-  </si>
-  <si>
-    <t>Documentary staff</t>
-  </si>
-  <si>
-    <t>017 897 344</t>
-  </si>
-  <si>
-    <t>Tek l'lor1</t>
-  </si>
-  <si>
-    <t>2000-01-11</t>
-  </si>
-  <si>
-    <t>Krong Siem Reap</t>
-  </si>
-  <si>
-    <t>Bona</t>
-  </si>
-  <si>
-    <t>Pi</t>
-  </si>
-  <si>
-    <t>bona@gmail.com</t>
-  </si>
-  <si>
-    <t>Customer care staff</t>
-  </si>
-  <si>
-    <t>092 453 879</t>
-  </si>
-  <si>
-    <t>Tek l'lor2</t>
-  </si>
-  <si>
-    <t>2003-02-11</t>
-  </si>
-  <si>
-    <t>Krong Battambang</t>
-  </si>
-  <si>
-    <t>Vy</t>
-  </si>
-  <si>
-    <t>Cheat</t>
-  </si>
-  <si>
-    <t>vy@gmail.com</t>
-  </si>
-  <si>
-    <t>Customs officer</t>
-  </si>
-  <si>
-    <t>097 563 8262</t>
-  </si>
-  <si>
-    <t>Phsar Thmei</t>
-  </si>
-  <si>
-    <t>1998-06-15</t>
-  </si>
-  <si>
-    <t>Krong Kampong Chhnang</t>
-  </si>
-  <si>
-    <t>Achariya</t>
-  </si>
-  <si>
-    <t>Ti</t>
-  </si>
-  <si>
-    <t>achariya@gmail.com</t>
-  </si>
-  <si>
-    <t>International payment staff</t>
-  </si>
-  <si>
-    <t>087 3244 568</t>
-  </si>
-  <si>
-    <t>Teokhla</t>
-  </si>
-  <si>
-    <t>2003-04-15</t>
-  </si>
-  <si>
-    <t>Phnom Penh</t>
-  </si>
-  <si>
-    <t>Dalin</t>
-  </si>
-  <si>
-    <t>Ourn</t>
-  </si>
-  <si>
-    <t>dalin@gmail.com</t>
-  </si>
-  <si>
-    <t>Purchasing staff</t>
-  </si>
-  <si>
-    <t>097 345 9862</t>
-  </si>
-  <si>
-    <t>2001-03-02</t>
-  </si>
-  <si>
-    <t>PreY Veng</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Pheap</t>
-  </si>
-  <si>
-    <t>moana@gmail.com</t>
-  </si>
-  <si>
-    <t>Port staff</t>
-  </si>
-  <si>
-    <t>010 348 946</t>
-  </si>
-  <si>
-    <t>2001-12-29</t>
-  </si>
-  <si>
-    <t>Krong Preah Sihanouk</t>
-  </si>
-  <si>
-    <t>Vanny</t>
-  </si>
-  <si>
-    <t>Vet</t>
-  </si>
-  <si>
-    <t>vanny@gmail.com</t>
   </si>
   <si>
     <t>093 342 864</t>
@@ -608,7 +587,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,7 +629,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -682,7 +661,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -691,39 +670,39 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
@@ -746,7 +725,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
@@ -778,7 +757,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -787,7 +766,7 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -799,103 +778,103 @@
         <v>48</v>
       </c>
       <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>57</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
         <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>64</v>
-      </c>
-      <c r="J8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
         <v>68</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>69</v>
-      </c>
-      <c r="H9" t="s">
-        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>70</v>
@@ -906,7 +885,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -915,13 +894,13 @@
         <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
         <v>75</v>
@@ -934,38 +913,6 @@
       </c>
       <c r="J10" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/public/report/EmployeeReport.xlsx
+++ b/public/report/EmployeeReport.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -47,211 +47,58 @@
     <t>pob</t>
   </si>
   <si>
-    <t>Atith</t>
-  </si>
-  <si>
-    <t>Pit</t>
+    <t>khouch</t>
+  </si>
+  <si>
+    <t>phal</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>khouch@gmail.com</t>
+  </si>
+  <si>
+    <t>Field staff</t>
+  </si>
+  <si>
+    <t>077 99 72 12</t>
+  </si>
+  <si>
+    <t>sadasd</t>
+  </si>
+  <si>
+    <t>2022-09-14</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>thorn</t>
+  </si>
+  <si>
+    <t>chan</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>atith@gmail.com</t>
+    <t>thorm@gmail.com</t>
   </si>
   <si>
     <t>Documentary staff</t>
   </si>
   <si>
-    <t>017 897 344</t>
-  </si>
-  <si>
-    <t>Tek l'lor1</t>
-  </si>
-  <si>
-    <t>2000-01-11</t>
-  </si>
-  <si>
-    <t>Krong Siem Reap</t>
-  </si>
-  <si>
-    <t>Bona</t>
-  </si>
-  <si>
-    <t>Pi</t>
-  </si>
-  <si>
-    <t>bona@gmail.com</t>
-  </si>
-  <si>
-    <t>Customer care staff</t>
-  </si>
-  <si>
-    <t>092 453 879</t>
-  </si>
-  <si>
-    <t>Tek l'lor2</t>
-  </si>
-  <si>
-    <t>2003-02-11</t>
-  </si>
-  <si>
-    <t>Krong Battambang</t>
-  </si>
-  <si>
-    <t>Vy</t>
-  </si>
-  <si>
-    <t>Cheat</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>vy@gmail.com</t>
-  </si>
-  <si>
-    <t>Customs officer</t>
-  </si>
-  <si>
-    <t>097 563 8262</t>
-  </si>
-  <si>
-    <t>Phsar Thmei</t>
-  </si>
-  <si>
-    <t>1998-06-15</t>
-  </si>
-  <si>
-    <t>Krong Kampong Chhnang</t>
-  </si>
-  <si>
-    <t>Achariya</t>
-  </si>
-  <si>
-    <t>Ti</t>
-  </si>
-  <si>
-    <t>achariya@gmail.com</t>
-  </si>
-  <si>
-    <t>International payment staff</t>
-  </si>
-  <si>
-    <t>087 3244 568</t>
-  </si>
-  <si>
-    <t>Teokhla</t>
-  </si>
-  <si>
-    <t>2003-04-15</t>
-  </si>
-  <si>
-    <t>Phnom Penh</t>
-  </si>
-  <si>
-    <t>Dalin</t>
-  </si>
-  <si>
-    <t>Ourn</t>
-  </si>
-  <si>
-    <t>dalin@gmail.com</t>
-  </si>
-  <si>
-    <t>Purchasing staff</t>
-  </si>
-  <si>
-    <t>097 345 9862</t>
-  </si>
-  <si>
-    <t>2001-03-02</t>
-  </si>
-  <si>
-    <t>PreY Veng</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Pheap</t>
-  </si>
-  <si>
-    <t>moana@gmail.com</t>
-  </si>
-  <si>
-    <t>Port staff</t>
-  </si>
-  <si>
-    <t>010 348 946</t>
-  </si>
-  <si>
-    <t>2001-12-29</t>
-  </si>
-  <si>
-    <t>Krong Preah Sihanouk</t>
-  </si>
-  <si>
-    <t>Vanny</t>
-  </si>
-  <si>
-    <t>Vet</t>
-  </si>
-  <si>
-    <t>vanny@gmail.com</t>
-  </si>
-  <si>
-    <t>Field staff</t>
-  </si>
-  <si>
-    <t>093 342 864</t>
-  </si>
-  <si>
-    <t>2000-03-28</t>
-  </si>
-  <si>
-    <t>Krong Battambong</t>
-  </si>
-  <si>
-    <t>Bekkham</t>
-  </si>
-  <si>
-    <t>Kha</t>
-  </si>
-  <si>
-    <t>bekhem@gmail.com</t>
-  </si>
-  <si>
-    <t>093 452 564</t>
-  </si>
-  <si>
-    <t>Boeng Keng Kang Ti Bei</t>
-  </si>
-  <si>
-    <t>1999-03-18</t>
-  </si>
-  <si>
-    <t>Krong Kampot</t>
-  </si>
-  <si>
-    <t>Rothanak</t>
-  </si>
-  <si>
-    <t>Nak</t>
-  </si>
-  <si>
-    <t>rothanak@gmail.com</t>
-  </si>
-  <si>
-    <t>rothanak</t>
-  </si>
-  <si>
-    <t>Boeng Keng Kang Ti Muoy</t>
-  </si>
-  <si>
-    <t>1998-11-10</t>
-  </si>
-  <si>
-    <t>Krong Pursat</t>
+    <t>092 676 453</t>
+  </si>
+  <si>
+    <t>dfsgsdg</t>
+  </si>
+  <si>
+    <t>2022-09-15</t>
+  </si>
+  <si>
+    <t>fdsgsfdfg</t>
   </si>
 </sst>
 </file>
@@ -587,7 +434,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,249 +517,25 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
